--- a/dataset/raw/literature/osburn2011/osburn2011.xlsx
+++ b/dataset/raw/literature/osburn2011/osburn2011.xlsx
@@ -444,36 +444,36 @@
   </sheetPr>
   <dimension ref="A1:Z28"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="L1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Y1" activeCellId="0" sqref="Y1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E28" activeCellId="0" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.4744897959184"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.5561224489796"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="20.1122448979592"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.530612244898"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="12.4183673469388"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="6.61224489795918"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.4744897959184"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="6.20918367346939"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="11.2040816326531"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="6.61224489795918"/>
-    <col collapsed="false" hidden="false" max="13" min="12" style="0" width="6.47959183673469"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="14.1734693877551"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="23.219387755102"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="15.9285714285714"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="18.2244897959184"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="16.0663265306122"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="14.0408163265306"/>
-    <col collapsed="false" hidden="false" max="22" min="20" style="0" width="22.0051020408163"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="4.86224489795918"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="16.6020408163265"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="5.53571428571429"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="4.86224489795918"/>
-    <col collapsed="false" hidden="false" max="1025" min="27" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.2040816326531"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.4183673469388"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="19.8418367346939"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.3928571428571"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="34.4489795918367"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="6.47959183673469"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.2040816326531"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="6.0765306122449"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="10.9336734693878"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="6.47959183673469"/>
+    <col collapsed="false" hidden="false" max="13" min="12" style="0" width="6.3469387755102"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="13.9030612244898"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="22.9489795918367"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="15.6581632653061"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="18.0867346938776"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="15.7959183673469"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="13.7704081632653"/>
+    <col collapsed="false" hidden="false" max="22" min="20" style="0" width="21.734693877551"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="4.72448979591837"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="16.3316326530612"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="5.39795918367347"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="4.72448979591837"/>
+    <col collapsed="false" hidden="false" max="1025" min="27" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="true" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2090,7 +2090,7 @@
         <v>41.819</v>
       </c>
       <c r="E21" s="0" t="n">
-        <v>102.598</v>
+        <v>-102.598</v>
       </c>
       <c r="F21" s="0" t="n">
         <v>0.56</v>
@@ -2170,7 +2170,7 @@
         <v>41.735</v>
       </c>
       <c r="E22" s="0" t="n">
-        <v>102.398</v>
+        <v>-102.398</v>
       </c>
       <c r="F22" s="0" t="n">
         <v>2.07</v>
@@ -2250,7 +2250,7 @@
         <v>42.21</v>
       </c>
       <c r="E23" s="0" t="n">
-        <v>102.606</v>
+        <v>-102.606</v>
       </c>
       <c r="F23" s="0" t="n">
         <v>0.61</v>
@@ -2330,7 +2330,7 @@
         <v>41.794</v>
       </c>
       <c r="E24" s="0" t="n">
-        <v>102.536</v>
+        <v>-102.536</v>
       </c>
       <c r="F24" s="0" t="n">
         <v>0.11</v>
@@ -2410,7 +2410,7 @@
         <v>41.778</v>
       </c>
       <c r="E25" s="0" t="n">
-        <v>102.445</v>
+        <v>-102.445</v>
       </c>
       <c r="F25" s="0" t="n">
         <v>0.8</v>
@@ -2490,7 +2490,7 @@
         <v>42.204</v>
       </c>
       <c r="E26" s="0" t="n">
-        <v>101.901</v>
+        <v>-101.901</v>
       </c>
       <c r="F26" s="0" t="n">
         <v>0.36</v>
@@ -2570,7 +2570,7 @@
         <v>42.003</v>
       </c>
       <c r="E27" s="0" t="n">
-        <v>102.382</v>
+        <v>-102.382</v>
       </c>
       <c r="F27" s="0" t="n">
         <v>0.5</v>
@@ -2650,7 +2650,7 @@
         <v>42.16</v>
       </c>
       <c r="E28" s="0" t="n">
-        <v>102.589</v>
+        <v>-102.589</v>
       </c>
       <c r="F28" s="0" t="n">
         <v>0.24</v>
@@ -2740,7 +2740,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
